--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/전주형, 금산사버스 79번.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/전주형, 금산사버스 79번.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05_Send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\12_dev\02_Excel2\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB622B1-D740-47BE-82E6-C82A7C15B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B778B1-9FB3-472B-9550-12609ABA8808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{91C976C1-80C7-4490-92EF-7E31A9D88DF5}"/>
   </bookViews>
@@ -1797,7 +1797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,18 +1816,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1909,10 +1903,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -2067,9 +2061,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2107,7 +2101,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2213,7 +2207,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2355,7 +2349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2366,7 +2360,7 @@
   <dimension ref="B1:BY32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2382,134 +2376,124 @@
   <sheetData>
     <row r="1" spans="2:77" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:77" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="10"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40" t="s">
+      <c r="N2" s="69"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="41"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="39"/>
     </row>
     <row r="3" spans="2:77" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="N3" s="36">
+      <c r="J3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="N3" s="34">
         <v>80</v>
       </c>
-      <c r="O3" s="37">
-        <v>-10</v>
-      </c>
-      <c r="P3" s="38">
+      <c r="O3" s="35">
+        <v>0</v>
+      </c>
+      <c r="P3" s="36">
         <f>N3+O3</f>
-        <v>70</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="2:77" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="14">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="14">
+      <c r="H4" s="12">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="12">
         <v>65</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="N4" s="69" t="s">
+      <c r="L4" s="7"/>
+      <c r="N4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="70" t="s">
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="68" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:77" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="N5" s="65">
+      <c r="L5" s="7"/>
+      <c r="N5" s="63">
         <v>0.34375</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="66" t="s">
+      <c r="Q5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="75">
+      <c r="R5" s="73">
         <f>N5+$P$3/1440</f>
-        <v>0.3923611111111111</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="6" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>0.25</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="57">
+      <c r="G6" s="17"/>
+      <c r="H6" s="55">
         <f>$H$4/1440</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="72">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="70">
         <f>F6+H6</f>
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="K6" s="61">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="K6" s="59">
         <f>$K$4/1440</f>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L6" s="21">
-        <f>J6+K6</f>
-        <v>0.30555555555555558</v>
-      </c>
-      <c r="N6" s="46">
+      <c r="L6" s="19">
+        <f t="shared" ref="L6:L32" si="0">J6+K6</f>
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="N6" s="44">
         <v>0.38541666666666669</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="48" t="s">
+      <c r="Q6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="76">
-        <f t="shared" ref="R6:R30" si="0">N6+$P$3/1440</f>
-        <v>0.43402777777777779</v>
+      <c r="R6" s="74">
+        <f t="shared" ref="R6:R30" si="1">N6+$P$3/1440</f>
+        <v>0.44097222222222221</v>
       </c>
     </row>
     <row r="7" spans="2:77" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2517,43 +2501,43 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>0.27569444444444446</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="58">
-        <f t="shared" ref="H7:H32" si="1">$H$4/1440</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="79">
-        <f t="shared" ref="J7:J32" si="2">F7+H7</f>
-        <v>0.28611111111111115</v>
-      </c>
-      <c r="K7" s="62">
-        <f t="shared" ref="K7:K32" si="3">$K$4/1440</f>
+      <c r="G7" s="15"/>
+      <c r="H7" s="56">
+        <f t="shared" ref="H7:H32" si="2">$H$4/1440</f>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="77">
+        <f t="shared" ref="J7:J32" si="3">F7+H7</f>
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="K7" s="60">
+        <f t="shared" ref="K7:K32" si="4">$K$4/1440</f>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L7" s="23">
-        <f>J7+K7</f>
-        <v>0.33125000000000004</v>
+      <c r="L7" s="21">
+        <f t="shared" si="0"/>
+        <v>0.33263888888888893</v>
       </c>
       <c r="M7"/>
-      <c r="N7" s="81">
+      <c r="N7" s="79">
         <v>0.41666666666666669</v>
       </c>
-      <c r="O7" s="82" t="s">
+      <c r="O7" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="82" t="s">
+      <c r="P7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="82" t="s">
+      <c r="Q7" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="80">
-        <f t="shared" si="0"/>
-        <v>0.46527777777777779</v>
+      <c r="R7" s="78">
+        <f t="shared" si="1"/>
+        <v>0.47222222222222221</v>
       </c>
       <c r="S7"/>
       <c r="T7"/>
@@ -2616,199 +2600,199 @@
       <c r="BY7"/>
     </row>
     <row r="8" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <v>0.30208333333333331</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="59">
+      <c r="G8" s="13"/>
+      <c r="H8" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="71">
+        <f t="shared" si="3"/>
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="K8" s="61">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="N8" s="50">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="O8" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="75">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="73">
+        <v>0.48611111111111116</v>
+      </c>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="22">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="57">
         <f t="shared" si="2"/>
-        <v>0.3125</v>
-      </c>
-      <c r="K8" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="71">
         <f t="shared" si="3"/>
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="K9" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L8" s="25">
-        <f>J8+K8</f>
-        <v>0.3576388888888889</v>
-      </c>
-      <c r="N8" s="52">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="O8" s="54" t="s">
+      <c r="L9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38472222222222224</v>
+      </c>
+      <c r="N9" s="47">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="74">
+        <f t="shared" si="1"/>
+        <v>0.50347222222222221</v>
+      </c>
+    </row>
+    <row r="10" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="22">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="71">
+        <f t="shared" si="3"/>
+        <v>0.36597222222222225</v>
+      </c>
+      <c r="K10" s="61">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="O10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="54" t="s">
+      <c r="P10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="77">
-        <f t="shared" si="0"/>
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="24">
-        <v>0.32777777777777778</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="59">
+      <c r="Q10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="73">
+        <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="11" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="22">
+        <v>0.37986111111111109</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="57">
         <f t="shared" si="2"/>
-        <v>0.33819444444444446</v>
-      </c>
-      <c r="K9" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="71">
         <f t="shared" si="3"/>
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="K11" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L9" s="25">
-        <f>J9+K9</f>
-        <v>0.38333333333333336</v>
-      </c>
-      <c r="N9" s="49">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="O9" s="51" t="s">
+      <c r="L11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="76">
+        <f t="shared" si="1"/>
+        <v>0.54513888888888884</v>
+      </c>
+    </row>
+    <row r="12" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="22">
+        <v>0.40625</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="71">
+        <f t="shared" si="3"/>
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="K12" s="61">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="N12" s="47">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="O12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="51" t="s">
+      <c r="P12" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="76">
-        <f t="shared" si="0"/>
-        <v>0.49652777777777779</v>
-      </c>
-    </row>
-    <row r="10" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="24">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="59">
+      <c r="Q12" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="74">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="73">
-        <f t="shared" si="2"/>
-        <v>0.36458333333333337</v>
-      </c>
-      <c r="K10" s="63">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L10" s="25">
-        <f>J10+K10</f>
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="N10" s="24">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="78">
-        <f t="shared" si="0"/>
-        <v>0.52777777777777779</v>
-      </c>
-    </row>
-    <row r="11" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="24">
-        <v>0.37986111111111109</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="59">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="73">
-        <f t="shared" si="2"/>
-        <v>0.39027777777777778</v>
-      </c>
-      <c r="K11" s="63">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L11" s="25">
-        <f>J11+K11</f>
-        <v>0.43541666666666667</v>
-      </c>
-      <c r="N11" s="24">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="78">
-        <f t="shared" si="0"/>
-        <v>0.53819444444444442</v>
-      </c>
-    </row>
-    <row r="12" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="24">
-        <v>0.40625</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="59">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="73">
-        <f t="shared" si="2"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="K12" s="63">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L12" s="25">
-        <f>J12+K12</f>
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="N12" s="49">
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="O12" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="76">
-        <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="13" spans="2:77" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2816,43 +2800,43 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>0.43194444444444446</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="58">
+      <c r="G13" s="15"/>
+      <c r="H13" s="56">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="77">
+        <f t="shared" si="3"/>
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="K13" s="60">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.48888888888888893</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13" s="22">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="79">
-        <f t="shared" si="2"/>
-        <v>0.44236111111111115</v>
-      </c>
-      <c r="K13" s="62">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L13" s="23">
-        <f>J13+K13</f>
-        <v>0.48750000000000004</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13" s="24">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="78">
-        <f t="shared" si="0"/>
-        <v>0.58680555555555558</v>
+        <v>0.59375</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -2915,198 +2899,198 @@
       <c r="BY13"/>
     </row>
     <row r="14" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="59">
+      <c r="G14" s="13"/>
+      <c r="H14" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="71">
+        <f t="shared" si="3"/>
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="K14" s="61">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.51527777777777772</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="73">
+        <v>0.61458333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="22">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="57">
         <f t="shared" si="2"/>
-        <v>0.46875</v>
-      </c>
-      <c r="K14" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="71">
         <f t="shared" si="3"/>
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="K15" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L14" s="25">
-        <f>J14+K14</f>
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="N14" s="24">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="16" t="s">
+      <c r="L15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="74">
+        <f t="shared" si="1"/>
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="16" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="71">
+        <f t="shared" si="3"/>
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="K16" s="61">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.55694444444444435</v>
+      </c>
+      <c r="N16" s="22">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="Q16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="78">
-        <f t="shared" si="0"/>
-        <v>0.60763888888888895</v>
-      </c>
-    </row>
-    <row r="15" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="24">
-        <v>0.47222222222222221</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="59">
+      <c r="R16" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="73">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="22">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="57">
         <f t="shared" si="2"/>
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="K15" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="71">
         <f t="shared" si="3"/>
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="K17" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L15" s="25">
-        <f>J15+K15</f>
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="N15" s="49">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="O15" s="51" t="s">
+      <c r="L17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.58472222222222214</v>
+      </c>
+      <c r="N17" s="50">
+        <v>0.625</v>
+      </c>
+      <c r="O17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="51" t="s">
+      <c r="P17" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="75">
+        <f t="shared" si="1"/>
+        <v>0.68055555555555558</v>
+      </c>
+    </row>
+    <row r="18" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="22">
+        <v>0.5625</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="71">
+        <f t="shared" si="3"/>
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="K18" s="61">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.61944444444444435</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="51" t="s">
+      <c r="Q18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="76">
-        <f t="shared" si="0"/>
-        <v>0.64930555555555558</v>
-      </c>
-    </row>
-    <row r="16" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="59">
+      <c r="R18" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="73">
-        <f t="shared" si="2"/>
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="K16" s="63">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L16" s="25">
-        <f>J16+K16</f>
-        <v>0.55555555555555547</v>
-      </c>
-      <c r="N16" s="24">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="78">
-        <f t="shared" si="0"/>
-        <v>0.67013888888888895</v>
-      </c>
-    </row>
-    <row r="17" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="24">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="59">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="73">
-        <f t="shared" si="2"/>
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="K17" s="63">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L17" s="25">
-        <f>J17+K17</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="N17" s="52">
-        <v>0.625</v>
-      </c>
-      <c r="O17" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="R17" s="77">
-        <f t="shared" si="0"/>
-        <v>0.67361111111111116</v>
-      </c>
-    </row>
-    <row r="18" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="24">
-        <v>0.5625</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="59">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="73">
-        <f t="shared" si="2"/>
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="K18" s="63">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L18" s="25">
-        <f>J18+K18</f>
-        <v>0.61805555555555547</v>
-      </c>
-      <c r="N18" s="24">
-        <v>0.64236111111111116</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="78">
-        <f t="shared" si="0"/>
-        <v>0.69097222222222232</v>
+        <v>0.69791666666666674</v>
       </c>
     </row>
     <row r="19" spans="2:77" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -3114,43 +3098,43 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="22">
+      <c r="F19" s="20">
         <v>0.58819444444444446</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="58">
+      <c r="G19" s="15"/>
+      <c r="H19" s="56">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="77">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="K19" s="60">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="0"/>
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="79">
-        <f t="shared" si="2"/>
-        <v>0.59861111111111109</v>
-      </c>
-      <c r="K19" s="62">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L19" s="23">
-        <f>J19+K19</f>
-        <v>0.64374999999999993</v>
-      </c>
-      <c r="M19"/>
-      <c r="N19" s="24">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="78">
-        <f t="shared" si="0"/>
-        <v>0.71527777777777779</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="S19"/>
       <c r="T19"/>
@@ -3213,198 +3197,198 @@
       <c r="BY19"/>
     </row>
     <row r="20" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <v>0.61944444444444446</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="59">
+      <c r="G20" s="13"/>
+      <c r="H20" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="71">
+        <f t="shared" si="3"/>
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="K20" s="61">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L20" s="23">
+        <f t="shared" si="0"/>
+        <v>0.67638888888888882</v>
+      </c>
+      <c r="N20" s="22">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="73">
+        <v>0.73611111111111116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="22">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="57">
         <f t="shared" si="2"/>
-        <v>0.62986111111111109</v>
-      </c>
-      <c r="K20" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="71">
         <f t="shared" si="3"/>
+        <v>0.65625</v>
+      </c>
+      <c r="K21" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L20" s="25">
-        <f>J20+K20</f>
-        <v>0.67499999999999993</v>
-      </c>
-      <c r="N20" s="24">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R20" s="78">
-        <f t="shared" si="0"/>
-        <v>0.72916666666666674</v>
-      </c>
-    </row>
-    <row r="21" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="24">
-        <v>0.64444444444444449</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="59">
+      <c r="L21" s="23">
+        <f t="shared" si="0"/>
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0.6875</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="73">
+        <v>0.74305555555555558</v>
+      </c>
+    </row>
+    <row r="22" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="22">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="57">
         <f t="shared" si="2"/>
-        <v>0.65486111111111112</v>
-      </c>
-      <c r="K21" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="71">
         <f t="shared" si="3"/>
+        <v>0.68194444444444435</v>
+      </c>
+      <c r="K22" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L21" s="25">
-        <f>J21+K21</f>
-        <v>0.7</v>
-      </c>
-      <c r="N21" s="24">
-        <v>0.6875</v>
-      </c>
-      <c r="O21" s="16" t="s">
+      <c r="L22" s="23">
+        <f t="shared" si="0"/>
+        <v>0.72708333333333319</v>
+      </c>
+      <c r="N22" s="22">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="O22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="16" t="s">
+      <c r="P22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="16" t="s">
+      <c r="Q22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="78">
-        <f t="shared" si="0"/>
-        <v>0.73611111111111116</v>
-      </c>
-    </row>
-    <row r="22" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="24">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="59">
+      <c r="R22" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="73">
+        <v>0.76388888888888895</v>
+      </c>
+    </row>
+    <row r="23" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="22">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="57">
         <f t="shared" si="2"/>
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="K22" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="71">
         <f t="shared" si="3"/>
+        <v>0.70972222222222214</v>
+      </c>
+      <c r="K23" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L22" s="25">
-        <f>J22+K22</f>
-        <v>0.72569444444444431</v>
-      </c>
-      <c r="N22" s="24">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="16" t="s">
+      <c r="L23" s="23">
+        <f t="shared" si="0"/>
+        <v>0.75486111111111098</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="16" t="s">
+      <c r="Q23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R22" s="78">
-        <f t="shared" si="0"/>
-        <v>0.75694444444444453</v>
-      </c>
-    </row>
-    <row r="23" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="24">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="59">
+      <c r="R23" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="73">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="24" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="22">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="57">
         <f t="shared" si="2"/>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="K23" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="71">
         <f t="shared" si="3"/>
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="K24" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L23" s="25">
-        <f>J23+K23</f>
-        <v>0.7534722222222221</v>
-      </c>
-      <c r="N23" s="24">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="O23" s="16" t="s">
+      <c r="L24" s="23">
+        <f t="shared" si="0"/>
+        <v>0.78263888888888877</v>
+      </c>
+      <c r="N24" s="22">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="O24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="16" t="s">
+      <c r="P24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="16" t="s">
+      <c r="Q24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R23" s="78">
-        <f t="shared" si="0"/>
-        <v>0.78819444444444453</v>
-      </c>
-    </row>
-    <row r="24" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="24">
-        <v>0.72569444444444442</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="59">
+      <c r="R24" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="73">
-        <f t="shared" si="2"/>
-        <v>0.73611111111111105</v>
-      </c>
-      <c r="K24" s="63">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L24" s="25">
-        <f>J24+K24</f>
-        <v>0.78124999999999989</v>
-      </c>
-      <c r="N24" s="24">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="R24" s="78">
-        <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="25" spans="2:77" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -3412,43 +3396,43 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="22">
+      <c r="F25" s="20">
         <v>0.75347222222222221</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="58">
+      <c r="G25" s="15"/>
+      <c r="H25" s="56">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="77">
+        <f t="shared" si="3"/>
+        <v>0.76527777777777772</v>
+      </c>
+      <c r="K25" s="60">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L25" s="21">
+        <f t="shared" si="0"/>
+        <v>0.81041666666666656</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="79">
-        <f t="shared" si="2"/>
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="K25" s="62">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L25" s="23">
-        <f>J25+K25</f>
-        <v>0.80902777777777768</v>
-      </c>
-      <c r="M25"/>
-      <c r="N25" s="24">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" s="78">
-        <f t="shared" si="0"/>
-        <v>0.81944444444444453</v>
+        <v>0.82638888888888895</v>
       </c>
       <c r="S25"/>
       <c r="T25"/>
@@ -3511,244 +3495,244 @@
       <c r="BY25"/>
     </row>
     <row r="26" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="24">
+      <c r="F26" s="22">
         <v>0.78125</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="59">
+      <c r="G26" s="13"/>
+      <c r="H26" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="71">
+        <f t="shared" si="3"/>
+        <v>0.79305555555555551</v>
+      </c>
+      <c r="K26" s="61">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L26" s="23">
+        <f t="shared" si="0"/>
+        <v>0.83819444444444435</v>
+      </c>
+      <c r="N26" s="22">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="73">
+        <v>0.84027777777777779</v>
+      </c>
+    </row>
+    <row r="27" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="22">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="57">
         <f t="shared" si="2"/>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K26" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="71">
         <f t="shared" si="3"/>
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="K27" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L26" s="25">
-        <f>J26+K26</f>
-        <v>0.83680555555555547</v>
-      </c>
-      <c r="N26" s="24">
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="16" t="s">
+      <c r="L27" s="23">
+        <f t="shared" si="0"/>
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="N27" s="22">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="76">
+        <f t="shared" si="1"/>
+        <v>0.88194444444444442</v>
+      </c>
+    </row>
+    <row r="28" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="22">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="71">
+        <f t="shared" si="3"/>
+        <v>0.84513888888888888</v>
+      </c>
+      <c r="K28" s="61">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L28" s="23">
+        <f t="shared" si="0"/>
+        <v>0.89027777777777772</v>
+      </c>
+      <c r="N28" s="50">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O28" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="75">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="29" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="22">
+        <v>0.85972222222222228</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="57">
+        <f t="shared" si="2"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="71">
+        <f t="shared" si="3"/>
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="K29" s="61">
+        <f t="shared" si="4"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="L29" s="23">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N29" s="22">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q26" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26" s="78">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="27" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="24">
-        <v>0.80763888888888891</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="59">
+      <c r="Q29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="73">
+        <v>0.90972222222222221</v>
+      </c>
+    </row>
+    <row r="30" spans="2:77" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="22">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="57">
         <f t="shared" si="2"/>
-        <v>0.81805555555555554</v>
-      </c>
-      <c r="K27" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="71">
         <f t="shared" si="3"/>
+        <v>0.89722222222222214</v>
+      </c>
+      <c r="K30" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L27" s="25">
-        <f>J27+K27</f>
-        <v>0.86319444444444438</v>
-      </c>
-      <c r="N27" s="24">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="O27" s="16" t="s">
+      <c r="L30" s="23">
+        <f t="shared" si="0"/>
+        <v>0.94236111111111098</v>
+      </c>
+      <c r="N30" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="O30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="16" t="s">
+      <c r="P30" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="16" t="s">
+      <c r="Q30" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R27" s="78">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="28" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="24">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="59">
+      <c r="R30" s="76">
         <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="73">
+        <v>0.93055555555555558</v>
+      </c>
+    </row>
+    <row r="31" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="22">
+        <v>0.91180555555555554</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="57">
         <f t="shared" si="2"/>
-        <v>0.84375</v>
-      </c>
-      <c r="K28" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="71">
         <f t="shared" si="3"/>
+        <v>0.92361111111111105</v>
+      </c>
+      <c r="K31" s="61">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L28" s="25">
-        <f>J28+K28</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="N28" s="52">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="O28" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="R28" s="77">
-        <f t="shared" si="0"/>
-        <v>0.88194444444444453</v>
-      </c>
-    </row>
-    <row r="29" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="24">
-        <v>0.85972222222222228</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="59">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="73">
+      <c r="L31" s="23">
+        <f t="shared" si="0"/>
+        <v>0.96874999999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="2:77" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="24">
+        <v>0.93055555555555558</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="58">
         <f t="shared" si="2"/>
-        <v>0.87013888888888891</v>
-      </c>
-      <c r="K29" s="63">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="72">
         <f t="shared" si="3"/>
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="K32" s="62">
+        <f t="shared" si="4"/>
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="L29" s="25">
-        <f>J29+K29</f>
-        <v>0.91527777777777775</v>
-      </c>
-      <c r="N29" s="24">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R29" s="78">
-        <f t="shared" si="0"/>
-        <v>0.90277777777777779</v>
-      </c>
-    </row>
-    <row r="30" spans="2:77" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F30" s="24">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="59">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="73">
-        <f t="shared" si="2"/>
-        <v>0.89583333333333326</v>
-      </c>
-      <c r="K30" s="63">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L30" s="25">
-        <f>J30+K30</f>
-        <v>0.9409722222222221</v>
-      </c>
-      <c r="N30" s="26">
-        <v>0.875</v>
-      </c>
-      <c r="O30" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="P30" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="R30" s="78">
-        <f t="shared" si="0"/>
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="31" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="24">
-        <v>0.91180555555555554</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="59">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="73">
-        <f t="shared" si="2"/>
-        <v>0.92222222222222217</v>
-      </c>
-      <c r="K31" s="63">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L31" s="25">
-        <f>J31+K31</f>
-        <v>0.96736111111111101</v>
-      </c>
-    </row>
-    <row r="32" spans="2:77" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F32" s="26">
-        <v>0.93055555555555558</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="60">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="74">
-        <f t="shared" si="2"/>
-        <v>0.94097222222222221</v>
-      </c>
-      <c r="K32" s="64">
-        <f t="shared" si="3"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="L32" s="29">
-        <f>J32+K32</f>
-        <v>0.98611111111111105</v>
+      <c r="L32" s="27">
+        <f t="shared" si="0"/>
+        <v>0.98749999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -3774,503 +3758,502 @@
   <sheetData>
     <row r="2" spans="3:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="43"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="3:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="36">
+      <c r="C4" s="34">
         <v>80</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>-10</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="36">
         <f>C4+D4</f>
         <v>70</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="3:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="35" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>0.34375</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="23">
         <f>C6+$E$4/1440</f>
         <v>0.3923611111111111</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="42">
         <f t="shared" ref="G7:G31" si="0">C7+$E$4/1440</f>
         <v>0.43402777777777779</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>0.46527777777777779</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="52">
+      <c r="C9" s="50">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <f t="shared" si="0"/>
         <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="49">
+      <c r="C10" s="47">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="43">
         <f t="shared" si="0"/>
         <v>0.49652777777777779</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="12" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="23">
         <f t="shared" si="0"/>
         <v>0.53819444444444442</v>
       </c>
     </row>
     <row r="13" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="49">
+      <c r="C13" s="47">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="43">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
     </row>
     <row r="14" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>0.53819444444444442</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="23">
         <f t="shared" si="0"/>
         <v>0.58680555555555558</v>
       </c>
     </row>
     <row r="15" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="23">
         <f t="shared" si="0"/>
         <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="16" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="49">
+      <c r="C16" s="47">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="43">
         <f t="shared" si="0"/>
         <v>0.64930555555555558</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="23">
         <f t="shared" si="0"/>
         <v>0.67013888888888895</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="52">
+      <c r="C18" s="50">
         <v>0.625</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="53">
         <f t="shared" si="0"/>
         <v>0.67361111111111116</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>0.64236111111111116</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="23">
         <f t="shared" si="0"/>
         <v>0.69097222222222232</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="23">
         <f t="shared" si="0"/>
         <v>0.71527777777777779</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <v>0.68055555555555558</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="23">
         <f t="shared" si="0"/>
         <v>0.72916666666666674</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <v>0.6875</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="23">
         <f t="shared" si="0"/>
         <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="23">
         <f t="shared" si="0"/>
         <v>0.75694444444444453</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="23">
         <f t="shared" si="0"/>
         <v>0.78819444444444453</v>
       </c>
     </row>
     <row r="25" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>0.76388888888888884</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="23">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="23">
         <f t="shared" si="0"/>
         <v>0.81944444444444453</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>0.78472222222222221</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="23">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <v>0.82638888888888884</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="23">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="52">
+      <c r="C29" s="50">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="55">
+      <c r="G29" s="53">
         <f t="shared" si="0"/>
         <v>0.88194444444444453</v>
       </c>
     </row>
     <row r="30" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="23">
         <f t="shared" si="0"/>
         <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="26">
+      <c r="C31" s="24">
         <v>0.875</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="27">
         <f t="shared" si="0"/>
         <v>0.92361111111111116</v>
       </c>
